--- a/Updated/opencdisc-report_SDTM.xlsx
+++ b/Updated/opencdisc-report_SDTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="17895" windowHeight="7365"/>
+    <workbookView xWindow="390" yWindow="615" windowWidth="15015" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Summary" sheetId="1" r:id="rId1"/>
@@ -3856,7 +3856,7 @@
     <t>Define.xml: C:\Users\peternew\Documents\Utilities\pinnacle21-community</t>
   </si>
   <si>
-    <t>Generated: 2017-02-09T08:20:15</t>
+    <t>Generated: 2017-02-10T18:09:31</t>
   </si>
   <si>
     <t>CDISC CT Version: 2016-06-26</t>

--- a/Updated/opencdisc-report_SDTM.xlsx
+++ b/Updated/opencdisc-report_SDTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="15015" windowHeight="7110"/>
+    <workbookView xWindow="630" yWindow="555" windowWidth="17895" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Summary" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1317">
   <si>
     <t>Pinnacle 21 ID</t>
   </si>
@@ -3856,7 +3856,7 @@
     <t>Define.xml: C:\Users\peternew\Documents\Utilities\pinnacle21-community</t>
   </si>
   <si>
-    <t>Generated: 2017-02-10T18:09:31</t>
+    <t>Generated: 2017-02-13T01:38:38</t>
   </si>
   <si>
     <t>CDISC CT Version: 2016-06-26</t>
@@ -3938,6 +3938,24 @@
   </si>
   <si>
     <t>te.xpt</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Trial Inclusion/Exclusion Criteria</t>
+  </si>
+  <si>
+    <t>ti.xpt</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Trial Visits</t>
+  </si>
+  <si>
+    <t>tv.xpt</t>
   </si>
   <si>
     <t>Total</t>
@@ -4442,9 +4460,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -4675,7 +4693,7 @@
         <v>1303</v>
       </c>
       <c r="E15" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -4720,120 +4738,178 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>1307</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7">
-        <v>321</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="B17" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E17" s="6">
+        <v>31</v>
+      </c>
+      <c r="F17" s="6">
         <v>0</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E18" s="5">
+        <v>21</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="7">
+        <v>376</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
         <v>1</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H19" s="14">
         <v>18</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I19" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="23" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="23" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="8" t="s">
+      <c r="D22" s="24" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="8" t="s">
         <v>1291</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>1292</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H22" s="13" t="s">
         <v>1293</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I22" s="16" t="s">
         <v>1294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="4" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="9">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="7">
-        <v>321</v>
-      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="9">
         <v>0</v>
       </c>
       <c r="G23" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="14">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I23" s="17">
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="7">
+        <v>376</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14">
+        <v>18</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A21:I21"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>

--- a/Updated/opencdisc-report_SDTM.xlsx
+++ b/Updated/opencdisc-report_SDTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="555" windowWidth="17895" windowHeight="7875"/>
+    <workbookView xWindow="390" yWindow="510" windowWidth="14055" windowHeight="6855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Summary" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1325">
   <si>
     <t>Pinnacle 21 ID</t>
   </si>
@@ -3835,16 +3835,34 @@
     <t>SE</t>
   </si>
   <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>ARMCD, ACTARMCD</t>
+  </si>
+  <si>
+    <t>Xan_Hi, Xan_Lo</t>
+  </si>
+  <si>
     <t>TS</t>
   </si>
   <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>ARMCD, ACTARMCD</t>
-  </si>
-  <si>
-    <t>Xan_Hi, Xan_Lo</t>
+    <t>TSPARM</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>TSPARM value not found in 'Trial Summary Parameter Test Name' extensible codelist</t>
+  </si>
+  <si>
+    <t>TSPARMCD</t>
+  </si>
+  <si>
+    <t>AGESPAN</t>
+  </si>
+  <si>
+    <t>TSPARMCD value not found in 'Trial Summary Parameter Test Code' extensible codelist</t>
   </si>
   <si>
     <t>Pinnacle 21 Validator Report</t>
@@ -3856,7 +3874,7 @@
     <t>Define.xml: C:\Users\peternew\Documents\Utilities\pinnacle21-community</t>
   </si>
   <si>
-    <t>Generated: 2017-02-13T01:38:38</t>
+    <t>Generated: 2017-03-12T20:13:36</t>
   </si>
   <si>
     <t>CDISC CT Version: 2016-06-26</t>
@@ -3947,6 +3965,12 @@
   </si>
   <si>
     <t>ti.xpt</t>
+  </si>
+  <si>
+    <t>Trial Summary</t>
+  </si>
+  <si>
+    <t>ts.xpt</t>
   </si>
   <si>
     <t>TV</t>
@@ -4123,7 +4147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4144,9 +4168,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4460,9 +4481,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -4476,149 +4497,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="20" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="22" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="A3" s="21" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="22" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="A4" s="21" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="22" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="A5" s="21" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="22" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="A6" s="21" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="22" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="A7" s="21" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="22" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="A8" s="21" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="22" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
+      <c r="A9" s="21" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="23" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="A11" s="22" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>1259</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>1294</v>
+        <v>1298</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4626,22 +4647,22 @@
         <v>1264</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1295</v>
+        <v>1301</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
       <c r="G13" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>6</v>
@@ -4652,16 +4673,16 @@
     </row>
     <row r="14" spans="1:9" ht="26.25">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1298</v>
+        <v>1304</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1299</v>
+        <v>1305</v>
       </c>
       <c r="E14" s="5">
         <v>306</v>
@@ -4681,16 +4702,16 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="E15" s="6">
         <v>11</v>
@@ -4710,16 +4731,16 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>1304</v>
+        <v>1310</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="E16" s="5">
         <v>7</v>
@@ -4739,16 +4760,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>1308</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>1302</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>1309</v>
+        <v>1315</v>
       </c>
       <c r="E17" s="6">
         <v>31</v>
@@ -4768,19 +4789,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>1310</v>
+        <v>1275</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1311</v>
+        <v>1316</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1312</v>
+        <v>1317</v>
       </c>
       <c r="E18" s="5">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
@@ -4789,127 +4810,156 @@
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7">
-        <v>376</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="A19" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E19" s="6">
+        <v>21</v>
+      </c>
+      <c r="F19" s="6">
         <v>0</v>
       </c>
-      <c r="G19" s="11">
-        <v>1</v>
-      </c>
-      <c r="H19" s="14">
-        <v>18</v>
-      </c>
-      <c r="I19" s="17">
+      <c r="G19" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="23" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="7">
+        <v>424</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>22</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="22" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="8" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I22" s="16" t="s">
+      <c r="B23" s="2" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="4" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="9">
+      <c r="C23" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="9">
         <v>0</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="11">
         <v>0</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H24" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I24" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="7">
-        <v>376</v>
-      </c>
-      <c r="F25" s="9">
+    <row r="26" spans="1:9">
+      <c r="A26" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="7">
+        <v>424</v>
+      </c>
+      <c r="F26" s="9">
         <v>0</v>
       </c>
-      <c r="G25" s="11">
-        <v>1</v>
-      </c>
-      <c r="H25" s="14">
-        <v>18</v>
-      </c>
-      <c r="I25" s="17">
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>22</v>
+      </c>
+      <c r="I26" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
@@ -4922,7 +4972,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4937,98 +4987,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18">
-      <c r="A1" s="20" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="22" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="A3" s="21" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="22" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="A4" s="21" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="A5" s="21" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="A6" s="21" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="21" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="A8" s="21" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="A9" s="21" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="23" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="A11" s="22" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -5043,32 +5093,32 @@
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>1264</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
-      <c r="B14" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>779</v>
+      <c r="B14" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>739</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>11</v>
+        <v>740</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="6">
         <v>1</v>
@@ -5076,16 +5126,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5"/>
-      <c r="B15" s="18" t="s">
-        <v>738</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>739</v>
+      <c r="B15" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>743</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="E15" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="5">
@@ -5094,16 +5144,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6"/>
-      <c r="B16" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>743</v>
+      <c r="B16" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>747</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="E16" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="6">
@@ -5112,16 +5162,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5"/>
-      <c r="B17" s="18" t="s">
-        <v>746</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>747</v>
+      <c r="B17" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>751</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="E17" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="5">
@@ -5130,16 +5180,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6"/>
-      <c r="B18" s="19" t="s">
-        <v>750</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>751</v>
+      <c r="B18" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>755</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="E18" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="6">
@@ -5148,16 +5198,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5"/>
-      <c r="B19" s="18" t="s">
-        <v>754</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>755</v>
+      <c r="B19" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>759</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="E19" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="5">
@@ -5165,54 +5215,83 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="6"/>
-      <c r="B20" s="19" t="s">
-        <v>758</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>759</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
+      <c r="A20" s="24" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="25" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="18" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="19" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="A22" s="24" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6"/>
+      <c r="B23" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="C23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5"/>
+      <c r="B24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A21:F21"/>
+  <mergeCells count="12">
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A22:F22"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
@@ -5225,22 +5304,24 @@
     <mergeCell ref="A6:F6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" location="'Rules'!A194" display="SD1115"/>
-    <hyperlink ref="C14" location="'Rules'!A194" display="FDAC002"/>
-    <hyperlink ref="B15" location="'Rules'!A184" display="SD1106"/>
-    <hyperlink ref="C15" location="'Rules'!A184" display="FDAC005"/>
-    <hyperlink ref="B16" location="'Rules'!A185" display="SD1107"/>
-    <hyperlink ref="C16" location="'Rules'!A185" display="FDAC006"/>
-    <hyperlink ref="B17" location="'Rules'!A186" display="SD1108"/>
-    <hyperlink ref="C17" location="'Rules'!A186" display="FDAC007"/>
-    <hyperlink ref="B18" location="'Rules'!A187" display="SD1109"/>
-    <hyperlink ref="C18" location="'Rules'!A187" display="FDAC004"/>
-    <hyperlink ref="B19" location="'Rules'!A188" display="SD1110"/>
-    <hyperlink ref="C19" location="'Rules'!A188" display="FDAC003"/>
-    <hyperlink ref="B20" location="'Rules'!A189" display="SD1111"/>
-    <hyperlink ref="C20" location="'Rules'!A189" display="FDAC008"/>
-    <hyperlink ref="B22" location="'Rules'!A287" display="SD2236"/>
-    <hyperlink ref="C22" location="'Rules'!A287" display="FDAC197"/>
+    <hyperlink ref="B14" location="'Rules'!A184" display="SD1106"/>
+    <hyperlink ref="C14" location="'Rules'!A184" display="FDAC005"/>
+    <hyperlink ref="B15" location="'Rules'!A185" display="SD1107"/>
+    <hyperlink ref="C15" location="'Rules'!A185" display="FDAC006"/>
+    <hyperlink ref="B16" location="'Rules'!A186" display="SD1108"/>
+    <hyperlink ref="C16" location="'Rules'!A186" display="FDAC007"/>
+    <hyperlink ref="B17" location="'Rules'!A187" display="SD1109"/>
+    <hyperlink ref="C17" location="'Rules'!A187" display="FDAC004"/>
+    <hyperlink ref="B18" location="'Rules'!A188" display="SD1110"/>
+    <hyperlink ref="C18" location="'Rules'!A188" display="FDAC003"/>
+    <hyperlink ref="B19" location="'Rules'!A189" display="SD1111"/>
+    <hyperlink ref="C19" location="'Rules'!A189" display="FDAC008"/>
+    <hyperlink ref="B21" location="'Rules'!A287" display="SD2236"/>
+    <hyperlink ref="C21" location="'Rules'!A287" display="FDAC197"/>
+    <hyperlink ref="B23" location="'Rules'!A3" display="CT2002"/>
+    <hyperlink ref="C23" location="'Rules'!A3" display="FDAC341"/>
+    <hyperlink ref="B24" location="'Rules'!A3" display="CT2002"/>
+    <hyperlink ref="C24" location="'Rules'!A3" display="FDAC341"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5248,9 +5329,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -5310,10 +5391,10 @@
       <c r="E2" s="5" t="s">
         <v>1266</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>739</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -5338,10 +5419,10 @@
       <c r="E3" s="5" t="s">
         <v>1267</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>742</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>743</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -5366,10 +5447,10 @@
       <c r="E4" s="5" t="s">
         <v>1268</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>746</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>747</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -5394,10 +5475,10 @@
       <c r="E5" s="5" t="s">
         <v>1269</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>750</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>751</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -5422,10 +5503,10 @@
       <c r="E6" s="5" t="s">
         <v>1270</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>754</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>755</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -5450,10 +5531,10 @@
       <c r="E7" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>758</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>759</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -5468,50 +5549,52 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>1272</v>
+      </c>
+      <c r="B8" s="5">
+        <v>21</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>1265</v>
+        <v>1273</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>778</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>779</v>
+        <v>1274</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>1150</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>780</v>
+        <v>1151</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B9" s="5">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>1274</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="5" t="s">
         <v>1150</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -5526,17 +5609,17 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B10" s="5">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>1274</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>1275</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>1149</v>
@@ -5556,17 +5639,17 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B11" s="5">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>1274</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>1275</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>1149</v>
@@ -5586,17 +5669,17 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B12" s="5">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>1274</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>1275</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>1149</v>
@@ -5616,17 +5699,17 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B13" s="5">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>1274</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>1275</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>1149</v>
@@ -5646,17 +5729,17 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B14" s="5">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>1274</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>1275</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>1149</v>
@@ -5676,17 +5759,17 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B15" s="5">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>1274</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1275</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>1149</v>
@@ -5706,17 +5789,17 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B16" s="5">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>1274</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>1275</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>1149</v>
@@ -5736,17 +5819,17 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B17" s="5">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>1274</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1275</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>1149</v>
@@ -5766,17 +5849,17 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B18" s="5">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>1274</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>1275</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>1149</v>
@@ -5796,17 +5879,17 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B19" s="5">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>1274</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>1275</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>1149</v>
@@ -5824,33 +5907,63 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="26.25">
       <c r="A20" s="5" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B20" s="5">
-        <v>261</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>1275</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
       <c r="D20" s="5" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="26.25">
+      <c r="A21" s="5" t="s">
         <v>1275</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>1150</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5868,10 +5981,12 @@
     <hyperlink ref="G6" location="'Rules'!A188" display="FDAC003"/>
     <hyperlink ref="F7" location="'Rules'!A189" display="SD1111"/>
     <hyperlink ref="G7" location="'Rules'!A189" display="FDAC008"/>
-    <hyperlink ref="F8" location="'Rules'!A194" display="SD1115"/>
-    <hyperlink ref="G8" location="'Rules'!A194" display="FDAC002"/>
-    <hyperlink ref="F9" location="'Rules'!A287" display="SD2236"/>
-    <hyperlink ref="G9" location="'Rules'!A287" display="FDAC197"/>
+    <hyperlink ref="F8" location="'Rules'!A287" display="SD2236"/>
+    <hyperlink ref="G8" location="'Rules'!A287" display="FDAC197"/>
+    <hyperlink ref="F20" location="'Rules'!A3" display="CT2002"/>
+    <hyperlink ref="G20" location="'Rules'!A3" display="FDAC341"/>
+    <hyperlink ref="F21" location="'Rules'!A3" display="CT2002"/>
+    <hyperlink ref="G21" location="'Rules'!A3" display="FDAC341"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
